--- a/out/bed_susp_2007_2023_stat_копия.xlsx
+++ b/out/bed_susp_2007_2023_stat_копия.xlsx
@@ -5,22 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Отчет по Джанкуату 2023\Влекомые наносы, кавказ гидормет\влекомые наносы Толя\Djan2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Отчет по Джанкуату 2023\Влекомые наносы, кавказ гидормет\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="суммарный сток наносов" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'суммарный сток наносов'!$D$2:$D$43</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'суммарный сток наносов'!$L$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'суммарный сток наносов'!$L$2:$L$43</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="96">
   <si>
     <t>Год</t>
   </si>
@@ -305,9 +310,6 @@
     <t>25,08,2023</t>
   </si>
   <si>
-    <t>tsd, кг/с</t>
-  </si>
-  <si>
     <t>tds &lt; 2</t>
   </si>
   <si>
@@ -318,6 +320,30 @@
   </si>
   <si>
     <t>bds &gt; 2</t>
+  </si>
+  <si>
+    <t>(R+G), кг/с</t>
+  </si>
+  <si>
+    <t>bds &lt;&lt; 2</t>
+  </si>
+  <si>
+    <t>q &lt;&lt; 2</t>
+  </si>
+  <si>
+    <t>9.98</t>
+  </si>
+  <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>dolya</t>
   </si>
 </sst>
 </file>
@@ -489,9 +515,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,9 +567,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>q &lt; 2</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -584,7 +605,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$43</c:f>
+              <c:f>'суммарный сток наносов'!$D$2:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -719,108 +740,108 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$F$2:$F$43</c:f>
+              <c:f>'суммарный сток наносов'!$H$2:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>0.59910859000000005</c:v>
+                  <c:v>8.4911089999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47738215000000001</c:v>
+                  <c:v>0.13526750000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38439456999999999</c:v>
+                  <c:v>3.1872869999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37163171</c:v>
+                  <c:v>1.9109999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43415724</c:v>
+                  <c:v>9.8599999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46224514999999999</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42032514999999998</c:v>
+                  <c:v>1.008E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.47462394000000002</c:v>
+                  <c:v>0.11537778</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41679165000000001</c:v>
+                  <c:v>4.6822219999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51489267000000005</c:v>
+                  <c:v>7.7288889999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.52133552000000005</c:v>
+                  <c:v>0.10053333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3439533699999999</c:v>
+                  <c:v>1.9328000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92625086000000001</c:v>
+                  <c:v>0.45333332999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.58259780000000005</c:v>
+                  <c:v>0.22244443999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.77638974999999999</c:v>
+                  <c:v>0.33800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.64041166999999999</c:v>
+                  <c:v>0.23324444</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.89241747000000005</c:v>
+                  <c:v>0.43804443999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.64027460000000003</c:v>
+                  <c:v>0.22044443999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.42174545000000002</c:v>
+                  <c:v>9.6777779999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.45971126000000001</c:v>
+                  <c:v>0.11377778</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.86477192000000003</c:v>
+                  <c:v>0.14506667000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.39929495999999998</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0277618500000001</c:v>
+                  <c:v>1.71733333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.0251130000000004E-2</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.12430912</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.12621963999999999</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.6224210000000001E-2</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.11365154</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.3757859999999995E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1178481</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.7158500000000001E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.7158500000000005E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.9504499999999997E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,10 +854,18 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>q &gt;2</c:v>
+            <c:strRef>
+              <c:f>'суммарный сток наносов'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>q &lt;&lt; 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -850,11 +879,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -864,7 +893,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -874,173 +903,79 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.749866787765044E-2"/>
+                  <c:y val="-3.0985650547310398E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$43</c:f>
+              <c:f>'суммарный сток наносов'!$K$2:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.59</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.87</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.87</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.86</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.67</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.87</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.556033</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.532332</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.61927</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.707209</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6637960000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.9445209999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.5613349999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.8906540000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.7472760000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.889448</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.8306469999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.4722230000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.5552569999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.6898029999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.5098259999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.436002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.456229</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.451166</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.354716</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.1954100000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
                   <c:v>1.1633929999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.3569580000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.4443649999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.3919189999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.3919189999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.4615480000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$G$2:$G$43</c:f>
+              <c:f>'суммарный сток наносов'!$J$2:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="7">
-                  <c:v>5.1211446799999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.94806334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0499152</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0499152</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0719422600000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5760984100000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.5760984100000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.83942648</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.3967887499999998</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +983,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-873A-4AEA-828D-3ED21CB681EA}"/>
+              <c16:uniqueId val="{00000000-91E9-43A0-975D-0CC94BFFB2BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1067,7 +1002,8 @@
         <c:axId val="209751247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
+          <c:max val="3"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1186,6 +1122,7 @@
         <c:axId val="209752495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1319,14 +1256,18 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11181963347641984"/>
           <c:y val="0.50323459885215394"/>
-          <c:w val="5.3438994653766198E-2"/>
-          <c:h val="0.20163820256554316"/>
+          <c:w val="0.12415156339394971"/>
+          <c:h val="0.13748053921552472"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1455,7 +1396,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$42</c:f>
+              <c:f>'суммарный сток наносов'!$D$2:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1587,7 +1528,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$H$2:$H$42</c:f>
+              <c:f>'суммарный сток наносов'!$H$2:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1724,7 +1665,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$43</c:f>
+              <c:f>'суммарный сток наносов'!$D$2:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1859,7 +1800,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$I$2:$I$43</c:f>
+              <c:f>'суммарный сток наносов'!$I$2:$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -2218,6 +2159,979 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'суммарный сток наносов'!$D$9:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'суммарный сток наносов'!$I$9:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.21290799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9826670000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53660571000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5440000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9588000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7593329999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0099999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A697-41B0-9804-E12347F070F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="685596656"/>
+        <c:axId val="685590000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="685596656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685590000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="685590000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685596656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'суммарный сток наносов'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dolya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'суммарный сток наносов'!$D$2:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.556033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.532332</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.61927</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.707209</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6637960000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9445209999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5613349999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8906540000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7472760000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.889448</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8306469999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4722230000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5552569999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6898029999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5098259999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.436002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.456229</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.451166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.354716</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1954100000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1633929999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3569580000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4443649999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3919189999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3919189999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4615480000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'суммарный сток наносов'!$L$2:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0.14172904781752504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28335265572874896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2917064023119158E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.142187678225843E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22710665840790767</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11249441989818605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3981434372889656E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1574298970987092E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0489410063838418E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33822794683493962</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3375880161050902E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1722822869235694E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.375719353135205E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5463661267155917E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3132620064377093E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0902968607475311E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24309304239703877</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11233963060440391</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15010679798568505</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19283805945161764</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.82458978268838179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48942824721834266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38181476140143339</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.43534835435424024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36421017068927192</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.49085148456360894</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34429671269171069</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22946964266076511</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24749835364050032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.16775136500731894</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17530899964277036</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.84691076025520451</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.37382651185098575</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16088924127208043</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39613486459001146</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.39357574188043404</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.43994124496685216</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.67789385429566418</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.50912997324521991</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.34990421372149372</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.51841339580214763</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.28775111140269888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-864F-4C38-9153-CA6421673DB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="535295568"/>
+        <c:axId val="535293904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="535295568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535293904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="535293904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535295568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2298,6 +3212,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3330,20 +4324,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3364,16 +5390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3389,6 +5415,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>162485</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>96370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>498662</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3684,10 +5770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,7 +5782,7 @@
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3727,14 +5813,14 @@
       <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>84</v>
+      <c r="K1" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
@@ -3765,14 +5851,17 @@
       <c r="J2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1">
-        <v>85.3</v>
+      <c r="K2" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="M2">
+        <v>3.57</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
@@ -3803,14 +5892,17 @@
       <c r="J3" s="13">
         <v>2.1</v>
       </c>
-      <c r="K3" s="1">
-        <v>1.18</v>
+      <c r="K3" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="M3">
+        <v>1.1499999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -3841,14 +5933,17 @@
       <c r="J4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="22">
-        <v>0.29299999999999998</v>
+      <c r="K4" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="M4">
+        <v>0.42499999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
@@ -3879,32 +5974,35 @@
       <c r="J5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="22">
-        <v>0.316</v>
+      <c r="K5" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AC5" s="4" t="e">
+      <c r="M5">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="AD5" s="4" t="e">
         <f>D8*60*60*24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="5" t="e">
+      <c r="AG5" s="5" t="e">
         <f>F8*60*60*24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG5" s="7" t="e">
-        <f>AF5/1000000</f>
+      <c r="AH5" s="7" t="e">
+        <f>AG5/1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -3935,32 +6033,35 @@
       <c r="J6" s="11">
         <v>3.18</v>
       </c>
-      <c r="K6" s="22">
-        <v>0.24299999999999999</v>
+      <c r="K6" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AC6" s="4" t="e">
+      <c r="M6">
+        <v>0.317</v>
+      </c>
+      <c r="AD6" s="4" t="e">
         <f>D9*60*60*24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>21</v>
       </c>
-      <c r="AF6" s="5" t="e">
+      <c r="AG6" s="5" t="e">
         <f>F9*60*60*24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG6" s="7" t="e">
-        <f t="shared" ref="AG6:AG10" si="0">AF6/1000000</f>
+      <c r="AH6" s="7" t="e">
+        <f t="shared" ref="AH6:AH10" si="0">AG6/1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -3997,18 +6098,17 @@
         <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
-      <c r="K7" s="16">
-        <f>AVERAGE(K2:K6)</f>
-        <v>17.4664</v>
+      <c r="K7" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AC7" s="4"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="7"/>
+      <c r="AD7" s="4"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="7"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -4039,32 +6139,42 @@
       <c r="J8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="2">
-        <v>8530</v>
+      <c r="K8" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AC8" s="4" t="e">
+      <c r="M8" s="23">
+        <v>357</v>
+      </c>
+      <c r="N8" s="23">
+        <f>M8*60*60*24/1000000</f>
+        <v>30.844799999999999</v>
+      </c>
+      <c r="P8">
+        <v>104</v>
+      </c>
+      <c r="AD8" s="4" t="e">
         <f>D10*60*60*24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>22</v>
       </c>
-      <c r="AF8" s="5" t="e">
+      <c r="AG8" s="5" t="e">
         <f>F10*60*60*24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG8" s="6" t="e">
+      <c r="AH8" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
@@ -4095,32 +6205,50 @@
       <c r="J9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="2">
-        <v>121</v>
+      <c r="K9" s="23">
+        <v>112</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="4" t="e">
+      <c r="M9" s="23">
+        <v>117</v>
+      </c>
+      <c r="N9" s="23">
+        <f t="shared" ref="N9:N12" si="2">M9*60*60*24/1000000</f>
+        <v>10.1088</v>
+      </c>
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9">
+        <f>K9*60*60*24</f>
+        <v>9676800</v>
+      </c>
+      <c r="R9">
+        <f>Q9/1000000</f>
+        <v>9.6768000000000001</v>
+      </c>
+      <c r="AD9" s="4" t="e">
         <f>D11*60*60*24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>23</v>
       </c>
-      <c r="AF9" s="5" t="e">
+      <c r="AG9" s="5" t="e">
         <f>F11*60*60*24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG9" s="6" t="e">
+      <c r="AH9" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -4151,32 +6279,42 @@
       <c r="J10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="1">
-        <v>31.6</v>
+      <c r="K10">
+        <v>35.5</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AC10" s="4" t="e">
+      <c r="M10">
+        <v>45.9</v>
+      </c>
+      <c r="N10" s="23">
+        <f t="shared" si="2"/>
+        <v>3.96576</v>
+      </c>
+      <c r="P10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD10" s="4" t="e">
         <f>D12*60*60*24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>19</v>
       </c>
-      <c r="AF10" s="5" t="e">
+      <c r="AG10" s="5" t="e">
         <f>F12*60*60*24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG10" s="6" t="e">
+      <c r="AH10" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -4207,14 +6345,24 @@
       <c r="J11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="9">
-        <v>31</v>
+      <c r="K11">
+        <v>12.1</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="M11">
+        <v>34</v>
+      </c>
+      <c r="N11" s="23">
+        <f t="shared" si="2"/>
+        <v>2.9376000000000002</v>
+      </c>
+      <c r="P11" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
@@ -4245,14 +6393,27 @@
       <c r="J12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="1">
-        <v>25.5</v>
+      <c r="K12">
+        <v>32.200000000000003</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="M12">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="N12" s="23">
+        <f t="shared" si="2"/>
+        <v>2.8771199999999997</v>
+      </c>
+      <c r="O12">
+        <v>-0.73199999999999998</v>
+      </c>
+      <c r="P12" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>42</v>
       </c>
@@ -4289,8 +6450,11 @@
       <c r="L13" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="O13">
+        <v>-0.61299999999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -4321,14 +6485,18 @@
       <c r="J14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="22">
-        <v>3.6999999999999998E-2</v>
-      </c>
+      <c r="K14" s="22"/>
       <c r="L14" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="M14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O14">
+        <v>-0.63600000000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -4359,14 +6527,18 @@
       <c r="J15" s="11">
         <v>0.49399999999999999</v>
       </c>
-      <c r="K15" s="22">
-        <v>4.5999999999999999E-2</v>
-      </c>
+      <c r="K15" s="22"/>
       <c r="L15" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="M15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O15">
+        <v>-1.1200000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
@@ -4397,14 +6569,18 @@
       <c r="J16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="22">
-        <v>4.3999999999999997E-2</v>
-      </c>
+      <c r="K16" s="22"/>
       <c r="L16" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="M16">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O16">
+        <v>-0.21199999999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -4435,14 +6611,18 @@
       <c r="J17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="22">
-        <v>1.9E-2</v>
-      </c>
+      <c r="K17" s="22"/>
       <c r="L17" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="M17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O17">
+        <v>96.8</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
@@ -4473,41 +6653,45 @@
       <c r="J18" s="11">
         <v>0.32</v>
       </c>
-      <c r="K18" s="22">
-        <v>9.0999999999999998E-2</v>
-      </c>
+      <c r="K18" s="22"/>
       <c r="L18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="M18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O18">
+        <v>19.5</v>
+      </c>
+      <c r="Q18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="R18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="S18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="T18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="U18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="V18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="V18" s="8" t="s">
+      <c r="W18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="W18" s="8" t="s">
+      <c r="X18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="X18" s="8" t="s">
+      <c r="Y18" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>42</v>
       </c>
@@ -4516,45 +6700,44 @@
         <v>-2.7</v>
       </c>
       <c r="C19" s="17">
-        <f t="shared" ref="C19:J19" si="2">MIN(C14:C18)</f>
+        <f t="shared" ref="C19:J19" si="3">MIN(C14:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="E19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32</v>
       </c>
-      <c r="K19" s="17">
-        <f>MIN(K14:K18)</f>
-        <v>1.9E-2</v>
-      </c>
+      <c r="K19" s="17"/>
       <c r="L19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="8"/>
+      <c r="O19">
+        <v>1.18</v>
+      </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -4563,8 +6746,9 @@
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>10</v>
       </c>
@@ -4595,51 +6779,55 @@
       <c r="J20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="2">
-        <v>8210</v>
-      </c>
+      <c r="K20" s="2"/>
       <c r="L20" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M20">
+        <v>96.8</v>
+      </c>
       <c r="O20">
+        <v>8.06</v>
+      </c>
+      <c r="P20">
         <f>ROUND(E20,-1)</f>
         <v>8680</v>
       </c>
-      <c r="P20" s="9">
+      <c r="Q20" s="9">
         <f>AVERAGE(B2:B6)</f>
         <v>10.235999999999999</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9">
-        <f t="shared" ref="R20:X20" si="3">AVERAGE(D2:D6)</f>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9">
+        <f t="shared" ref="S20:Y20" si="4">AVERAGE(D2:D6)</f>
         <v>1.5619999999999998</v>
       </c>
-      <c r="S20" s="9">
-        <f t="shared" si="3"/>
+      <c r="T20" s="9">
+        <f t="shared" si="4"/>
         <v>470.6</v>
       </c>
-      <c r="T20" s="9">
-        <f t="shared" si="3"/>
+      <c r="U20" s="9">
+        <f t="shared" si="4"/>
         <v>1.0109999999999999</v>
       </c>
-      <c r="U20" s="9">
-        <f t="shared" si="3"/>
+      <c r="V20" s="9">
+        <f t="shared" si="4"/>
         <v>0.17566666666666667</v>
       </c>
-      <c r="V20" s="9">
-        <f t="shared" si="3"/>
+      <c r="W20" s="9">
+        <f t="shared" si="4"/>
         <v>3.1799999999999997</v>
       </c>
-      <c r="W20" s="9">
-        <f t="shared" si="3"/>
+      <c r="X20" s="9">
+        <f t="shared" si="4"/>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="X20" s="9">
-        <f t="shared" si="3"/>
+      <c r="Y20" s="9">
+        <f t="shared" si="4"/>
         <v>2.64</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
@@ -4670,18 +6858,22 @@
       <c r="J21" s="11">
         <v>3.86</v>
       </c>
-      <c r="K21" s="1">
-        <v>16.100000000000001</v>
-      </c>
+      <c r="K21" s="1"/>
       <c r="L21" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M21">
+        <v>19.5</v>
+      </c>
       <c r="O21">
+        <v>1.05</v>
+      </c>
+      <c r="P21">
         <f>ROUND(E21,-1)</f>
         <v>6770</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
@@ -4712,18 +6904,22 @@
       <c r="J22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="1">
-        <v>1.02</v>
-      </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M22">
+        <v>1.18</v>
+      </c>
       <c r="O22">
+        <v>11.3</v>
+      </c>
+      <c r="P22">
         <f>ROUND(E22,-2)</f>
         <v>13000</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>14</v>
       </c>
@@ -4754,18 +6950,22 @@
       <c r="J23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="1">
-        <v>6.37</v>
-      </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M23">
+        <v>8.06</v>
+      </c>
       <c r="O23">
+        <v>2.52</v>
+      </c>
+      <c r="P23">
         <f>ROUND(E23,-1)</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
@@ -4796,18 +6996,22 @@
       <c r="J24" s="11">
         <v>12.8</v>
       </c>
-      <c r="K24" s="22">
-        <v>0.81699999999999995</v>
-      </c>
+      <c r="K24" s="22"/>
       <c r="L24" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="M24">
+        <v>1.05</v>
+      </c>
       <c r="O24">
+        <v>0.435</v>
+      </c>
+      <c r="P24">
         <f>ROUND(E24,-1)</f>
         <v>10900</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>42</v>
       </c>
@@ -4816,46 +7020,46 @@
         <v>19.3</v>
       </c>
       <c r="C25" s="15">
-        <f t="shared" ref="C25:J25" si="4">MAX(C20:C24)</f>
+        <f t="shared" ref="C25:J25" si="5">MAX(C20:C24)</f>
         <v>117</v>
       </c>
       <c r="D25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.01</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13000</v>
       </c>
       <c r="F25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.8</v>
       </c>
       <c r="G25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.93</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="I25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.8</v>
       </c>
-      <c r="K25" s="15">
-        <f>MAX(K20:K24)</f>
-        <v>8210</v>
-      </c>
+      <c r="K25" s="15"/>
       <c r="L25" s="15" t="s">
         <v>17</v>
       </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>10</v>
       </c>
@@ -4886,14 +7090,18 @@
       <c r="J26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="2">
-        <v>821</v>
-      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="M26">
+        <v>11.3</v>
+      </c>
+      <c r="O26">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>12</v>
       </c>
@@ -4924,14 +7132,15 @@
       <c r="J27" s="13">
         <v>1.3</v>
       </c>
-      <c r="K27" s="1">
-        <v>2.15</v>
-      </c>
+      <c r="K27" s="1"/>
       <c r="L27" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="M27">
+        <v>2.4900000000000002</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
@@ -4962,14 +7171,15 @@
       <c r="J28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="22">
-        <v>0.17599999999999999</v>
-      </c>
+      <c r="K28" s="22"/>
       <c r="L28" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="M28">
+        <v>0.27700000000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>14</v>
       </c>
@@ -5000,14 +7210,15 @@
       <c r="J29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="22">
-        <v>0.73299999999999998</v>
-      </c>
+      <c r="K29" s="22"/>
       <c r="L29" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="M29">
+        <v>0.86799999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>15</v>
       </c>
@@ -5038,14 +7249,15 @@
       <c r="J30" s="11">
         <v>3.99</v>
       </c>
-      <c r="K30" s="22">
-        <v>0.106</v>
-      </c>
+      <c r="K30" s="22"/>
       <c r="L30" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="M30">
+        <v>0.214</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>42</v>
       </c>
@@ -5054,41 +7266,38 @@
         <v>3.2960000000000003</v>
       </c>
       <c r="C31" s="16">
-        <f t="shared" ref="C31:J31" si="5">AVERAGE(C26:C30)</f>
+        <f t="shared" ref="C31:J31" si="6">AVERAGE(C26:C30)</f>
         <v>11.875999999999999</v>
       </c>
       <c r="D31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57939999999999992</v>
       </c>
       <c r="E31" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1064.8</v>
       </c>
       <c r="F31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1205999999999996</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23899999999999999</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.14</v>
       </c>
       <c r="I31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="J31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.645</v>
       </c>
-      <c r="K31" s="17">
-        <f>AVERAGE(K26:K30)</f>
-        <v>164.833</v>
-      </c>
+      <c r="K31" s="17"/>
       <c r="L31" s="15" t="s">
         <v>18</v>
       </c>
@@ -5101,15 +7310,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -5126,19 +7335,28 @@
         <v>47</v>
       </c>
       <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" t="s">
-        <v>88</v>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
@@ -5166,8 +7384,18 @@
         <f t="shared" ref="I2:I8" si="0">IF(D2 &gt; 2,B2,"")</f>
         <v/>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>B2/(B2+C2)</f>
+        <v>0.14172904781752504</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
@@ -5195,8 +7423,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K3">
+        <f>MIN(D:D)</f>
+        <v>1.1633929999999999</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L43" si="3">B3/(B3+C3)</f>
+        <v>0.28335265572874896</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>50</v>
       </c>
@@ -5224,8 +7463,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>8.2917064023119158E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>50</v>
       </c>
@@ -5253,8 +7496,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>5.142187678225843E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>51</v>
       </c>
@@ -5282,8 +7529,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>0.22710665840790767</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>52</v>
       </c>
@@ -5311,8 +7562,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>0.11249441989818605</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>52</v>
       </c>
@@ -5340,8 +7595,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>2.3981434372889656E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>53</v>
       </c>
@@ -5365,8 +7624,12 @@
         <f>IF(D9 &gt; 2,B9,"")</f>
         <v>0.21290799999999999</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>4.1574298970987092E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>53</v>
       </c>
@@ -5383,15 +7646,19 @@
         <v>4.94806334</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G2:G43" si="3">IF(D10 &gt; 2,E10,"")</f>
+        <f t="shared" ref="G10:G17" si="4">IF(D10 &gt; 2,E10,"")</f>
         <v>4.94806334</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I43" si="4">IF(D10 &gt; 2,B10,"")</f>
+        <f t="shared" ref="I10:I17" si="5">IF(D10 &gt; 2,B10,"")</f>
         <v>3.9826670000000002E-2</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>8.0489410063838418E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>54</v>
       </c>
@@ -5409,15 +7676,19 @@
         <v>1.0499152</v>
       </c>
       <c r="G11">
+        <f t="shared" si="4"/>
+        <v>1.0499152</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>0.53660571000000001</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="3"/>
-        <v>1.0499152</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>0.53660571000000001</v>
+        <v>0.33822794683493962</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>54</v>
       </c>
@@ -5431,19 +7702,23 @@
         <v>2.87</v>
       </c>
       <c r="E12" s="21">
-        <f t="shared" ref="E12:E16" si="5">C12</f>
+        <f t="shared" ref="E12:E16" si="6">C12</f>
         <v>1.0499152</v>
       </c>
       <c r="G12">
+        <f t="shared" si="4"/>
+        <v>1.0499152</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="3"/>
-        <v>1.0499152</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>5.9200000000000003E-2</v>
+        <v>5.3375880161050902E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>55</v>
       </c>
@@ -5457,19 +7732,23 @@
         <v>2.86</v>
       </c>
       <c r="E13" s="21">
+        <f t="shared" si="6"/>
+        <v>6.0719422600000001</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>6.0719422600000001</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="5"/>
-        <v>6.0719422600000001</v>
-      </c>
-      <c r="G13">
+        <v>2.5440000000000001E-2</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="3"/>
-        <v>6.0719422600000001</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>2.5440000000000001E-2</v>
+        <v>4.1722822869235694E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>56</v>
       </c>
@@ -5483,19 +7762,23 @@
         <v>3.21</v>
       </c>
       <c r="E14" s="21">
+        <f t="shared" si="6"/>
+        <v>2.5760984100000002</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>2.5760984100000002</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="5"/>
-        <v>2.5760984100000002</v>
-      </c>
-      <c r="G14">
+        <v>0.09</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="3"/>
-        <v>2.5760984100000002</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
-        <v>0.09</v>
+        <v>3.375719353135205E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>56</v>
       </c>
@@ -5509,19 +7792,23 @@
         <v>3.21</v>
       </c>
       <c r="E15" s="21">
+        <f t="shared" si="6"/>
+        <v>2.5760984100000002</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>2.5760984100000002</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="5"/>
-        <v>2.5760984100000002</v>
-      </c>
-      <c r="G15">
+        <v>1.9588000000000001E-2</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="3"/>
-        <v>2.5760984100000002</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
-        <v>1.9588000000000001E-2</v>
+        <v>7.5463661267155917E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>57</v>
       </c>
@@ -5535,19 +7822,23 @@
         <v>3.67</v>
       </c>
       <c r="E16" s="21">
+        <f t="shared" si="6"/>
+        <v>24.83942648</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>24.83942648</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="5"/>
-        <v>24.83942648</v>
-      </c>
-      <c r="G16">
+        <v>5.7593329999999998E-2</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="3"/>
-        <v>24.83942648</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
-        <v>5.7593329999999998E-2</v>
+        <v>2.3132620064377093E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>58</v>
       </c>
@@ -5564,15 +7855,19 @@
         <v>2.3967887499999998</v>
       </c>
       <c r="G17">
+        <f t="shared" si="4"/>
+        <v>2.3967887499999998</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="3"/>
-        <v>2.3967887499999998</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
-        <v>5.0099999999999999E-2</v>
+        <v>2.0902968607475311E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>59</v>
       </c>
@@ -5596,8 +7891,12 @@
         <f t="shared" si="2"/>
         <v>0.11537778</v>
       </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>0.24309304239703877</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>60</v>
       </c>
@@ -5621,8 +7920,12 @@
         <f t="shared" si="2"/>
         <v>4.6822219999999998E-2</v>
       </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>0.11233963060440391</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>61</v>
       </c>
@@ -5646,8 +7949,12 @@
         <f t="shared" si="2"/>
         <v>7.7288889999999999E-2</v>
       </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>0.15010679798568505</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>62</v>
       </c>
@@ -5671,8 +7978,12 @@
         <f t="shared" si="2"/>
         <v>0.10053333</v>
       </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>0.19283805945161764</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>63</v>
       </c>
@@ -5696,8 +8007,12 @@
         <f t="shared" si="2"/>
         <v>1.9328000000000001</v>
       </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>0.82458978268838179</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>64</v>
       </c>
@@ -5721,8 +8036,12 @@
         <f t="shared" si="2"/>
         <v>0.45333332999999998</v>
       </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>0.48942824721834266</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>65</v>
       </c>
@@ -5746,8 +8065,12 @@
         <f t="shared" si="2"/>
         <v>0.22244443999999999</v>
       </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>0.38181476140143339</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>66</v>
       </c>
@@ -5771,8 +8094,12 @@
         <f t="shared" si="2"/>
         <v>0.33800000000000002</v>
       </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>0.43534835435424024</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>67</v>
       </c>
@@ -5796,8 +8123,12 @@
         <f t="shared" si="2"/>
         <v>0.23324444</v>
       </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>0.36421017068927192</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>68</v>
       </c>
@@ -5821,8 +8152,12 @@
         <f t="shared" si="2"/>
         <v>0.43804443999999998</v>
       </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>0.49085148456360894</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>69</v>
       </c>
@@ -5846,8 +8181,12 @@
         <f t="shared" si="2"/>
         <v>0.22044443999999999</v>
       </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>0.34429671269171069</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>70</v>
       </c>
@@ -5871,8 +8210,12 @@
         <f t="shared" si="2"/>
         <v>9.6777779999999994E-2</v>
       </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>0.22946964266076511</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>71</v>
       </c>
@@ -5896,8 +8239,12 @@
         <f t="shared" si="2"/>
         <v>0.11377778</v>
       </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>0.24749835364050032</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>72</v>
       </c>
@@ -5921,8 +8268,12 @@
         <f t="shared" si="2"/>
         <v>0.14506667000000001</v>
       </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>0.16775136500731894</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>73</v>
       </c>
@@ -5946,8 +8297,12 @@
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>0.17530899964277036</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>74</v>
       </c>
@@ -5971,8 +8326,12 @@
         <f t="shared" si="2"/>
         <v>1.71733333</v>
       </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>0.84691076025520451</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>75</v>
       </c>
@@ -5996,8 +8355,12 @@
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>0.37382651185098575</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>76</v>
       </c>
@@ -6021,8 +8384,12 @@
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>0.16088924127208043</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>77</v>
       </c>
@@ -6046,8 +8413,12 @@
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>0.39613486459001146</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>78</v>
       </c>
@@ -6071,8 +8442,12 @@
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>0.39357574188043404</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>79</v>
       </c>
@@ -6096,8 +8471,12 @@
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>0.43994124496685216</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>80</v>
       </c>
@@ -6121,8 +8500,12 @@
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>0.67789385429566418</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>81</v>
       </c>
@@ -6146,8 +8529,12 @@
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0.50912997324521991</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>82</v>
       </c>
@@ -6171,8 +8558,12 @@
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>0.34990421372149372</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>82</v>
       </c>
@@ -6196,8 +8587,12 @@
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
+      <c r="L42">
+        <f t="shared" si="3"/>
+        <v>0.51841339580214763</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>83</v>
       </c>
@@ -6221,10 +8616,14 @@
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>0.28775111140269888</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1048576 F1">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6234,7 +8633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E43">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6244,6 +8643,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6253,7 +8662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
+  <conditionalFormatting sqref="I1">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6263,13 +8672,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
